--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinay Viny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vinay-git-clone\test_data\thor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD00FCED-E8E9-4AA4-9281-FB7059C61CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7318F534-7EFD-4860-A2D9-7922CF4D2DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17FE3567-98CC-4C0A-87CD-AF6DCADBD2FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>Vinay.s</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FFD7FC-2A7F-43E4-BB9D-AD85A0C1C1BC}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD1048576"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,6 +702,17 @@
       </c>
       <c r="C24">
         <v>13092619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>17092619</v>
       </c>
     </row>
   </sheetData>
@@ -730,8 +741,9 @@
     <hyperlink ref="B22" r:id="rId22" display="akshara.xworkz@gmail.com " xr:uid="{F52E1E3D-7237-4B36-8EED-6201F97F326E}"/>
     <hyperlink ref="B23" r:id="rId23" display="akshara.xworkz@gmail.com " xr:uid="{F9E6C3EB-880B-4393-BA31-1F6417E380E0}"/>
     <hyperlink ref="B24" r:id="rId24" display="akshara.xworkz@gmail.com " xr:uid="{E04288A2-E0C4-45FC-96FC-702FCA86C341}"/>
+    <hyperlink ref="B25" r:id="rId25" display="akshara.xworkz@gmail.com " xr:uid="{D1E91FF6-5994-4246-81E0-D0A6BDC9ACB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vinay-git-clone\test_data\thor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7318F534-7EFD-4860-A2D9-7922CF4D2DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4056945E-D4F5-4A66-9AF4-EBE6A8F1B1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17FE3567-98CC-4C0A-87CD-AF6DCADBD2FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="13">
   <si>
     <t>Vinay.s</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FFD7FC-2A7F-43E4-BB9D-AD85A0C1C1BC}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,6 +712,270 @@
         <v>11</v>
       </c>
       <c r="C25">
+        <v>17092619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>9092619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>9092619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>10092619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>10092619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>10092619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>12092619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>12092619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>13092619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>12092619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>13092619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>14092619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>10092619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>10092619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>12092619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>13092619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
         <v>17092619</v>
       </c>
     </row>
@@ -742,8 +1006,32 @@
     <hyperlink ref="B23" r:id="rId23" display="akshara.xworkz@gmail.com " xr:uid="{F9E6C3EB-880B-4393-BA31-1F6417E380E0}"/>
     <hyperlink ref="B24" r:id="rId24" display="akshara.xworkz@gmail.com " xr:uid="{E04288A2-E0C4-45FC-96FC-702FCA86C341}"/>
     <hyperlink ref="B25" r:id="rId25" display="akshara.xworkz@gmail.com " xr:uid="{D1E91FF6-5994-4246-81E0-D0A6BDC9ACB9}"/>
+    <hyperlink ref="B33" r:id="rId26" display="vinaycralvy@gmail.com" xr:uid="{17511911-CBFA-47D9-BE50-F5D671D86222}"/>
+    <hyperlink ref="B32" r:id="rId27" display="vinays10998@gmail.com" xr:uid="{EEF10A36-03A2-49EF-83B3-D7F5D57BA2C9}"/>
+    <hyperlink ref="B31" r:id="rId28" display="vinayv78744143@gmail.com" xr:uid="{B50E88D7-DEDE-4FC5-8653-9E9669D9E9C6}"/>
+    <hyperlink ref="B30" r:id="rId29" display="vinaycralvy@gmail.com" xr:uid="{6C41419A-BD30-4A97-ABA8-9D82F583BA13}"/>
+    <hyperlink ref="B29" r:id="rId30" display="vinays10998@gmail.com" xr:uid="{7383ED00-5393-4BD4-BED1-098CEEEF86D8}"/>
+    <hyperlink ref="B28" r:id="rId31" display="vinayv78744143@gmail.com" xr:uid="{DBE11E3D-3FF3-4274-A191-E6FCCAC70970}"/>
+    <hyperlink ref="B27" r:id="rId32" display="vinaycralvy@gmail.com" xr:uid="{9275678A-734D-434E-A39C-93BFA779444F}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{D989BF15-731E-4052-A375-EE851BAB439B}"/>
+    <hyperlink ref="B34" r:id="rId34" xr:uid="{20F858BA-913B-49F6-8A25-2F94BD58DCA2}"/>
+    <hyperlink ref="B26" r:id="rId35" display="vinays10998@gmail.com" xr:uid="{A6E10662-52D4-40A5-B53D-E564E91322C0}"/>
+    <hyperlink ref="B43" r:id="rId36" display="vinaycralvy@gmail.com" xr:uid="{8C4BB290-5194-4E4A-87D2-94B3DBE68D22}"/>
+    <hyperlink ref="B42" r:id="rId37" display="vinays10998@gmail.com" xr:uid="{0DEE968B-8FA5-43E2-B3C7-4B3AC8841CC2}"/>
+    <hyperlink ref="B41" r:id="rId38" display="vinayv78744143@gmail.com" xr:uid="{AF88EA6D-3F78-4DFB-B9CB-609A992356AA}"/>
+    <hyperlink ref="B40" r:id="rId39" display="vinaycralvy@gmail.com" xr:uid="{63853972-2FA3-42AE-9800-B9DEA8121CA6}"/>
+    <hyperlink ref="B39" r:id="rId40" display="vinays10998@gmail.com" xr:uid="{BB8EE120-DE08-48B8-8476-5837D9489631}"/>
+    <hyperlink ref="B38" r:id="rId41" display="vinayv78744143@gmail.com" xr:uid="{7AE443ED-BDB3-48BA-89D0-59514B7DCCEB}"/>
+    <hyperlink ref="B37" r:id="rId42" display="vinaycralvy@gmail.com" xr:uid="{CF61FEEE-439A-4F72-821D-5E686A32BC32}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{D86F668E-994E-4238-B164-2650F1FB8D73}"/>
+    <hyperlink ref="B44" r:id="rId44" xr:uid="{469A9252-723C-45B2-82DE-0E362D60450C}"/>
+    <hyperlink ref="B36" r:id="rId45" display="vinays10998@gmail.com" xr:uid="{6E8FB4F4-015F-4EA1-B475-05A6A79026B0}"/>
+    <hyperlink ref="B46" r:id="rId46" display="akshara.xworkz@gmail.com " xr:uid="{A96CEC69-13E1-46AB-8596-CFCDAC129D41}"/>
+    <hyperlink ref="B47" r:id="rId47" display="akshara.xworkz@gmail.com " xr:uid="{8794D10F-F81B-48EA-B79D-15CB0CD7E61A}"/>
+    <hyperlink ref="B48" r:id="rId48" display="akshara.xworkz@gmail.com " xr:uid="{11F4209B-2F51-4689-8F02-77935BF4D1DB}"/>
+    <hyperlink ref="B49" r:id="rId49" display="akshara.xworkz@gmail.com " xr:uid="{699CA8EF-66A9-4B6B-AFB5-1F66C21D42C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>